--- a/Hardware/RocketSensorsLayoutBoard.xlsx
+++ b/Hardware/RocketSensorsLayoutBoard.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
   <si>
     <t>GND</t>
   </si>
@@ -139,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +176,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -295,7 +301,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,9 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,6 +388,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,6 +451,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -789,18 +824,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" customHeight="1">
+    <row r="1" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>9</v>
       </c>
@@ -825,7 +860,7 @@
       <c r="H1" s="2">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -838,134 +873,134 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="36" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="C3" s="26" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="C3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="4" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="36" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="10" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="4" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="36" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="24" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="36" customHeight="1">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="6" t="s">
+    <row r="6" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="18" t="s">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="36" customHeight="1">
+    <row r="7" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>10</v>
       </c>
@@ -975,10 +1010,10 @@
       <c r="C7" s="2">
         <v>12</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>13</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -990,28 +1025,323 @@
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="19" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="36" customHeight="1">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="36" customHeight="1">
-      <c r="J12" s="3"/>
+    <row r="9" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="34"/>
+    </row>
+    <row r="12" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="34"/>
+    </row>
+    <row r="13" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="6"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+      <c r="D15" s="28">
+        <v>13</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="18" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
